--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H2">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I2">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J2">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N2">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O2">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P2">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q2">
-        <v>2.040601735843</v>
+        <v>6.45513239844</v>
       </c>
       <c r="R2">
-        <v>8.162406943372002</v>
+        <v>25.82052959376</v>
       </c>
       <c r="S2">
-        <v>0.002604913436353197</v>
+        <v>0.02779580394069051</v>
       </c>
       <c r="T2">
-        <v>0.001445616334788889</v>
+        <v>0.0179277808543639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H3">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I3">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J3">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P3">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q3">
-        <v>5.660927841767</v>
+        <v>32.457259532115</v>
       </c>
       <c r="R3">
-        <v>33.965567050602</v>
+        <v>194.74355719269</v>
       </c>
       <c r="S3">
-        <v>0.007226411081706199</v>
+        <v>0.1397609788181578</v>
       </c>
       <c r="T3">
-        <v>0.006015526901484422</v>
+        <v>0.1352148802166153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H4">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I4">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J4">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N4">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O4">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P4">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q4">
-        <v>0.7693420142815</v>
+        <v>8.844218521050001</v>
       </c>
       <c r="R4">
-        <v>4.616052085689</v>
+        <v>53.0653111263</v>
       </c>
       <c r="S4">
-        <v>0.0009820972485476223</v>
+        <v>0.0380832102032701</v>
       </c>
       <c r="T4">
-        <v>0.0008175333995969102</v>
+        <v>0.03684445221723315</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H5">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I5">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J5">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N5">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O5">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P5">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q5">
-        <v>7.0616912890755</v>
+        <v>37.97629331178375</v>
       </c>
       <c r="R5">
-        <v>28.246765156302</v>
+        <v>151.905173247135</v>
       </c>
       <c r="S5">
-        <v>0.009014544190168415</v>
+        <v>0.1635259415505711</v>
       </c>
       <c r="T5">
-        <v>0.005002689206527935</v>
+        <v>0.1054712161007325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H6">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I6">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J6">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N6">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O6">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P6">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q6">
-        <v>0.4872536314268333</v>
+        <v>2.8834555966425</v>
       </c>
       <c r="R6">
-        <v>2.923521788561</v>
+        <v>17.300733579855</v>
       </c>
       <c r="S6">
-        <v>0.0006219996333048794</v>
+        <v>0.01241616151131632</v>
       </c>
       <c r="T6">
-        <v>0.0005177750732076426</v>
+        <v>0.01201229274221904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H7">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I7">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J7">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N7">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O7">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P7">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q7">
-        <v>0.453587288066</v>
+        <v>11.1795442810425</v>
       </c>
       <c r="R7">
-        <v>2.721523728396</v>
+        <v>67.07726568625502</v>
       </c>
       <c r="S7">
-        <v>0.0005790231383656129</v>
+        <v>0.04813912431249626</v>
       </c>
       <c r="T7">
-        <v>0.0004819998787832442</v>
+        <v>0.04657327089928243</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H8">
         <v>2.626902</v>
       </c>
       <c r="I8">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J8">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N8">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O8">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P8">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q8">
-        <v>2.760840727908</v>
+        <v>1.523224886112</v>
       </c>
       <c r="R8">
-        <v>16.565044367448</v>
+        <v>9.139349316672002</v>
       </c>
       <c r="S8">
-        <v>0.003524328623972125</v>
+        <v>0.006559007264077471</v>
       </c>
       <c r="T8">
-        <v>0.002933779078918699</v>
+        <v>0.006345658058863867</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H9">
         <v>2.626902</v>
       </c>
       <c r="I9">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J9">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P9">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q9">
-        <v>7.658976207252</v>
+        <v>7.658976207252002</v>
       </c>
       <c r="R9">
-        <v>68.93078586526799</v>
+        <v>68.93078586526801</v>
       </c>
       <c r="S9">
-        <v>0.009777003361578622</v>
+        <v>0.03297955609626816</v>
       </c>
       <c r="T9">
-        <v>0.01220809875175137</v>
+        <v>0.04786021210851761</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H10">
         <v>2.626902</v>
       </c>
       <c r="I10">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J10">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N10">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O10">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P10">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q10">
-        <v>1.040884524114</v>
+        <v>2.08698023804</v>
       </c>
       <c r="R10">
-        <v>9.367960717026</v>
+        <v>18.78282214236</v>
       </c>
       <c r="S10">
-        <v>0.001328732615939161</v>
+        <v>0.008986538144233022</v>
       </c>
       <c r="T10">
-        <v>0.001659127893297468</v>
+        <v>0.01304134053377828</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H11">
         <v>2.626902</v>
       </c>
       <c r="I11">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J11">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N11">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O11">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P11">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q11">
-        <v>9.554145023178</v>
+        <v>8.961308844537001</v>
       </c>
       <c r="R11">
-        <v>57.324870139068</v>
+        <v>53.767853067222</v>
       </c>
       <c r="S11">
-        <v>0.01219626559489422</v>
+        <v>0.03858740120573245</v>
       </c>
       <c r="T11">
-        <v>0.01015261420284613</v>
+        <v>0.03733224306258022</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H12">
         <v>2.626902</v>
       </c>
       <c r="I12">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J12">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N12">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O12">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P12">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q12">
-        <v>0.6592318563859999</v>
+        <v>0.6804122753340002</v>
       </c>
       <c r="R12">
-        <v>5.933086707474</v>
+        <v>6.123710478006001</v>
       </c>
       <c r="S12">
-        <v>0.0008415370281269199</v>
+        <v>0.00292985566161177</v>
       </c>
       <c r="T12">
-        <v>0.001050788954722218</v>
+        <v>0.004251831437717491</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H13">
         <v>2.626902</v>
       </c>
       <c r="I13">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J13">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N13">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O13">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P13">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q13">
-        <v>0.613682835096</v>
+        <v>2.638049696454001</v>
       </c>
       <c r="R13">
-        <v>5.523145515864</v>
+        <v>23.74244726808601</v>
       </c>
       <c r="S13">
-        <v>0.0007833917979788909</v>
+        <v>0.01135944355938451</v>
       </c>
       <c r="T13">
-        <v>0.0009781856543715226</v>
+        <v>0.01648492104017118</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H14">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I14">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J14">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N14">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O14">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P14">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q14">
-        <v>11.163500222718</v>
+        <v>1.823710324304</v>
       </c>
       <c r="R14">
-        <v>66.98100133630801</v>
+        <v>10.942261945824</v>
       </c>
       <c r="S14">
-        <v>0.01425067479660685</v>
+        <v>0.007852897739358159</v>
       </c>
       <c r="T14">
-        <v>0.01186277899693665</v>
+        <v>0.007597461295417674</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H15">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I15">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J15">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P15">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q15">
-        <v>30.969183311142</v>
+        <v>9.169856736267334</v>
       </c>
       <c r="R15">
-        <v>278.722649800278</v>
+        <v>82.52871062640601</v>
       </c>
       <c r="S15">
-        <v>0.03953345736362038</v>
+        <v>0.0394854085513574</v>
       </c>
       <c r="T15">
-        <v>0.0493636274474292</v>
+        <v>0.05730156048623349</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.048369666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.145109</v>
+      </c>
+      <c r="I16">
+        <v>0.1214052598347301</v>
+      </c>
+      <c r="J16">
+        <v>0.1500372408625836</v>
+      </c>
+      <c r="K16">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.540639</v>
-      </c>
-      <c r="H16">
-        <v>10.621917</v>
-      </c>
-      <c r="I16">
-        <v>0.1150430856889177</v>
-      </c>
-      <c r="J16">
-        <v>0.1171915486778959</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N16">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O16">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P16">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q16">
-        <v>4.208831932719</v>
+        <v>2.498677274402222</v>
       </c>
       <c r="R16">
-        <v>37.879487394471</v>
+        <v>22.48809546962</v>
       </c>
       <c r="S16">
-        <v>0.005372749939548047</v>
+        <v>0.01075930582727128</v>
       </c>
       <c r="T16">
-        <v>0.006708708118913671</v>
+        <v>0.01561399606260564</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H17">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I17">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J17">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N17">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O17">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P17">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q17">
-        <v>38.632326383763</v>
+        <v>10.72909956242483</v>
       </c>
       <c r="R17">
-        <v>231.793958302578</v>
+        <v>64.374597374549</v>
       </c>
       <c r="S17">
-        <v>0.04931577990306529</v>
+        <v>0.04619950908665797</v>
       </c>
       <c r="T17">
-        <v>0.04105224534286121</v>
+        <v>0.04469674683193687</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H18">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I18">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J18">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N18">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O18">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P18">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q18">
-        <v>2.665613739031</v>
+        <v>0.8146366978530001</v>
       </c>
       <c r="R18">
-        <v>23.990523651279</v>
+        <v>7.331730280677</v>
       </c>
       <c r="S18">
-        <v>0.00340276739109065</v>
+        <v>0.003507826104680011</v>
       </c>
       <c r="T18">
-        <v>0.004248880644034743</v>
+        <v>0.005090587057015534</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H19">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I19">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J19">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N19">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O19">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P19">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q19">
-        <v>2.481435599316</v>
+        <v>3.158455794226334</v>
       </c>
       <c r="R19">
-        <v>22.332920393844</v>
+        <v>28.42610214803701</v>
       </c>
       <c r="S19">
-        <v>0.00316765629498647</v>
+        <v>0.0136003125254053</v>
       </c>
       <c r="T19">
-        <v>0.003955308127720409</v>
+        <v>0.01973688912937435</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H20">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I20">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J20">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N20">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O20">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P20">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q20">
-        <v>3.296342946950001</v>
+        <v>2.144738610936</v>
       </c>
       <c r="R20">
-        <v>13.1853717878</v>
+        <v>8.578954443744001</v>
       </c>
       <c r="S20">
-        <v>0.004207919596711935</v>
+        <v>0.009235245732219677</v>
       </c>
       <c r="T20">
-        <v>0.00233521667921569</v>
+        <v>0.00595656315524151</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H21">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I21">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J21">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.240334</v>
       </c>
       <c r="O21">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P21">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q21">
-        <v>9.144537729550002</v>
+        <v>10.784029424481</v>
       </c>
       <c r="R21">
-        <v>54.86722637730001</v>
+        <v>64.704176546886</v>
       </c>
       <c r="S21">
-        <v>0.01167338475829675</v>
+        <v>0.04643603710528876</v>
       </c>
       <c r="T21">
-        <v>0.009717349214007425</v>
+        <v>0.04492558114590262</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H22">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I22">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J22">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N22">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O22">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P22">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q22">
-        <v>1.242778087475</v>
+        <v>2.93852019987</v>
       </c>
       <c r="R22">
-        <v>7.456668524850001</v>
+        <v>17.63112119922</v>
       </c>
       <c r="S22">
-        <v>0.001586458191035289</v>
+        <v>0.01265326972551087</v>
       </c>
       <c r="T22">
-        <v>0.001320625386287856</v>
+        <v>0.01224168837934037</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H23">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I23">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J23">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N23">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O23">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P23">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q23">
-        <v>11.407300045575</v>
+        <v>12.61774624261725</v>
       </c>
       <c r="R23">
-        <v>45.62920018230001</v>
+        <v>50.470984970469</v>
       </c>
       <c r="S23">
-        <v>0.01456189546411176</v>
+        <v>0.05433202281303037</v>
       </c>
       <c r="T23">
-        <v>0.008081233585204598</v>
+        <v>0.03504315257240626</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H24">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I24">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J24">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N24">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O24">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P24">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q24">
-        <v>0.7870987479416668</v>
+        <v>0.9580374451395002</v>
       </c>
       <c r="R24">
-        <v>4.72259248765</v>
+        <v>5.748224670837001</v>
       </c>
       <c r="S24">
-        <v>0.001004764461499887</v>
+        <v>0.004125309807645939</v>
       </c>
       <c r="T24">
-        <v>0.0008364024104730292</v>
+        <v>0.003991123103273545</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H25">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I25">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J25">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N25">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O25">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P25">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q25">
-        <v>0.7327148809000001</v>
+        <v>3.714439734499501</v>
       </c>
       <c r="R25">
-        <v>4.396289285400001</v>
+        <v>22.28663840699701</v>
       </c>
       <c r="S25">
-        <v>0.0009353411813520045</v>
+        <v>0.01599437970236054</v>
       </c>
       <c r="T25">
-        <v>0.0007786119520287149</v>
+        <v>0.01547411984290402</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.243757666666667</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H26">
-        <v>3.731273</v>
+        <v>2.886924</v>
       </c>
       <c r="I26">
-        <v>0.04041240008444284</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J26">
-        <v>0.04116711337605242</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N26">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O26">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P26">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q26">
-        <v>3.921520660208667</v>
+        <v>1.674000202944</v>
       </c>
       <c r="R26">
-        <v>23.529123961252</v>
+        <v>10.044001217664</v>
       </c>
       <c r="S26">
-        <v>0.005005985087283173</v>
+        <v>0.007208245867885284</v>
       </c>
       <c r="T26">
-        <v>0.004167163702770111</v>
+        <v>0.006973778445456858</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.243757666666667</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H27">
-        <v>3.731273</v>
+        <v>2.886924</v>
       </c>
       <c r="I27">
-        <v>0.04041240008444284</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J27">
-        <v>0.04116711337605242</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>26.240334</v>
       </c>
       <c r="O27">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P27">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q27">
-        <v>10.87887219613133</v>
+        <v>8.417094443624002</v>
       </c>
       <c r="R27">
-        <v>97.909849765182</v>
+        <v>75.753849992616</v>
       </c>
       <c r="S27">
-        <v>0.01388733521995398</v>
+        <v>0.03624401367225076</v>
       </c>
       <c r="T27">
-        <v>0.01734048291628069</v>
+        <v>0.0525976206882366</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H28">
+        <v>2.886924</v>
+      </c>
+      <c r="I28">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J28">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1.243757666666667</v>
-      </c>
-      <c r="H28">
-        <v>3.731273</v>
-      </c>
-      <c r="I28">
-        <v>0.04041240008444284</v>
-      </c>
-      <c r="J28">
-        <v>0.04116711337605242</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N28">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O28">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P28">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q28">
-        <v>1.478480857277666</v>
+        <v>2.293558471813333</v>
       </c>
       <c r="R28">
-        <v>13.306327715499</v>
+        <v>20.64202624632</v>
       </c>
       <c r="S28">
-        <v>0.001887342631766681</v>
+        <v>0.009876064141525557</v>
       </c>
       <c r="T28">
-        <v>0.002356638775183742</v>
+        <v>0.01433222822135631</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.243757666666667</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H29">
-        <v>3.731273</v>
+        <v>2.886924</v>
       </c>
       <c r="I29">
-        <v>0.04041240008444284</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J29">
-        <v>0.04116711337605242</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N29">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O29">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P29">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q29">
-        <v>13.570785420647</v>
+        <v>9.848337537794</v>
       </c>
       <c r="R29">
-        <v>81.42471252388201</v>
+        <v>59.090025226764</v>
       </c>
       <c r="S29">
-        <v>0.01732367500388584</v>
+        <v>0.0424069472856079</v>
       </c>
       <c r="T29">
-        <v>0.01442085591868151</v>
+        <v>0.04102754821885108</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.243757666666667</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H30">
-        <v>3.731273</v>
+        <v>2.886924</v>
       </c>
       <c r="I30">
-        <v>0.04041240008444284</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J30">
-        <v>0.04116711337605242</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N30">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O30">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P30">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q30">
-        <v>0.9363782990278887</v>
+        <v>0.7477623937080001</v>
       </c>
       <c r="R30">
-        <v>8.427404691250999</v>
+        <v>6.729861543372</v>
       </c>
       <c r="S30">
-        <v>0.001195326050058288</v>
+        <v>0.003219865311322195</v>
       </c>
       <c r="T30">
-        <v>0.001492549191196791</v>
+        <v>0.00467269590624284</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.243757666666667</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H31">
-        <v>3.731273</v>
+        <v>2.886924</v>
       </c>
       <c r="I31">
-        <v>0.04041240008444284</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J31">
-        <v>0.04116711337605242</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N31">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O31">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P31">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q31">
-        <v>0.8716800981373333</v>
+        <v>2.899175143148001</v>
       </c>
       <c r="R31">
-        <v>7.845120883236</v>
+        <v>26.092576288332</v>
       </c>
       <c r="S31">
-        <v>0.001112736091494883</v>
+        <v>0.01248384988790315</v>
       </c>
       <c r="T31">
-        <v>0.001389422871939567</v>
+        <v>0.01811666906073205</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>23.42392733333334</v>
+        <v>0.8052966666666667</v>
       </c>
       <c r="H32">
-        <v>70.271782</v>
+        <v>2.41589</v>
       </c>
       <c r="I32">
-        <v>0.7610945028226961</v>
+        <v>0.0932564668449094</v>
       </c>
       <c r="J32">
-        <v>0.7753081633885379</v>
+        <v>0.1152498911253973</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N32">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O32">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P32">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q32">
-        <v>73.85475277276134</v>
+        <v>1.40086831184</v>
       </c>
       <c r="R32">
-        <v>443.1285166365681</v>
+        <v>8.40520987104</v>
       </c>
       <c r="S32">
-        <v>0.09427867988989662</v>
+        <v>0.006032139782607848</v>
       </c>
       <c r="T32">
-        <v>0.07848099543490226</v>
+        <v>0.005835928347471138</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>23.42392733333334</v>
+        <v>0.8052966666666667</v>
       </c>
       <c r="H33">
-        <v>70.271782</v>
+        <v>2.41589</v>
       </c>
       <c r="I33">
-        <v>0.7610945028226961</v>
+        <v>0.0932564668449094</v>
       </c>
       <c r="J33">
-        <v>0.7753081633885379</v>
+        <v>0.1152498911253973</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>26.240334</v>
       </c>
       <c r="O33">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P33">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q33">
-        <v>204.8838922727987</v>
+        <v>7.043751167473334</v>
       </c>
       <c r="R33">
-        <v>1843.955030455188</v>
+        <v>63.39376050726</v>
       </c>
       <c r="S33">
-        <v>0.261542854982074</v>
+        <v>0.03033039670966533</v>
       </c>
       <c r="T33">
-        <v>0.32657664964949</v>
+        <v>0.04401572949080194</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H34">
+        <v>2.41589</v>
+      </c>
+      <c r="I34">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J34">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K34">
         <v>3</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>23.42392733333334</v>
-      </c>
-      <c r="H34">
-        <v>70.271782</v>
-      </c>
-      <c r="I34">
-        <v>0.7610945028226961</v>
-      </c>
-      <c r="J34">
-        <v>0.7753081633885379</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N34">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O34">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P34">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q34">
-        <v>27.84451432360733</v>
+        <v>1.919338706688889</v>
       </c>
       <c r="R34">
-        <v>250.600628912466</v>
+        <v>17.2740483602</v>
       </c>
       <c r="S34">
-        <v>0.03554468675404199</v>
+        <v>0.008264673610690887</v>
       </c>
       <c r="T34">
-        <v>0.04438303127711614</v>
+        <v>0.01199376458739215</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>23.42392733333334</v>
+        <v>0.8052966666666667</v>
       </c>
       <c r="H35">
-        <v>70.271782</v>
+        <v>2.41589</v>
       </c>
       <c r="I35">
-        <v>0.7610945028226961</v>
+        <v>0.0932564668449094</v>
       </c>
       <c r="J35">
-        <v>0.7753081633885379</v>
+        <v>0.1152498911253973</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N35">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O35">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P35">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q35">
-        <v>255.581211733498</v>
+        <v>8.241470913048333</v>
       </c>
       <c r="R35">
-        <v>1533.487270400988</v>
+        <v>49.44882547829</v>
       </c>
       <c r="S35">
-        <v>0.3262601030028935</v>
+        <v>0.03548777864530803</v>
       </c>
       <c r="T35">
-        <v>0.271590752906849</v>
+        <v>0.034333443993136</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>23.42392733333334</v>
+        <v>0.8052966666666667</v>
       </c>
       <c r="H36">
-        <v>70.271782</v>
+        <v>2.41589</v>
       </c>
       <c r="I36">
-        <v>0.7610945028226961</v>
+        <v>0.0932564668449094</v>
       </c>
       <c r="J36">
-        <v>0.7753081633885379</v>
+        <v>0.1152498911253973</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N36">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O36">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P36">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q36">
-        <v>17.63499258800378</v>
+        <v>0.62575658013</v>
       </c>
       <c r="R36">
-        <v>158.714933292034</v>
+        <v>5.63180922117</v>
       </c>
       <c r="S36">
-        <v>0.02251180538347559</v>
+        <v>0.002694508205609215</v>
       </c>
       <c r="T36">
-        <v>0.0281094659619002</v>
+        <v>0.003910293209288854</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>23.42392733333334</v>
+        <v>0.8052966666666667</v>
       </c>
       <c r="H37">
-        <v>70.271782</v>
+        <v>2.41589</v>
       </c>
       <c r="I37">
-        <v>0.7610945028226961</v>
+        <v>0.0932564668449094</v>
       </c>
       <c r="J37">
-        <v>0.7753081633885379</v>
+        <v>0.1152498911253973</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N37">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O37">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P37">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q37">
-        <v>16.41651892800267</v>
+        <v>2.426142231863334</v>
       </c>
       <c r="R37">
-        <v>147.748670352024</v>
+        <v>21.83528008677001</v>
       </c>
       <c r="S37">
-        <v>0.02095637281031446</v>
+        <v>0.01044696989102807</v>
       </c>
       <c r="T37">
-        <v>0.02616726815828035</v>
+        <v>0.01516073149730715</v>
       </c>
     </row>
   </sheetData>
